--- a/T1/data.xlsx
+++ b/T1/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gatuno7000\Documents\GitHub\F1014B\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B805D03-DE9A-4D4D-BD6B-8979E140B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C8CC51-CE9B-47C6-AD9B-FCC8780E3834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,34 +366,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,47 +401,55 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
